--- a/data/trans_bre/Hacinamiento_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Hacinamiento_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.240875571169495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.3258477323232468</v>
+        <v>-0.3258477323232464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4526864813850425</v>
@@ -649,7 +649,7 @@
         <v>1.168299975509923</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1285519741959458</v>
+        <v>-0.1285519741959457</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.337684136719948</v>
+        <v>-1.670521620407525</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3192262655667309</v>
+        <v>0.282787754582648</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2114372020716384</v>
+        <v>-0.3118246587880615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.259259101042035</v>
+        <v>-2.376979777929261</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3539048067362214</v>
+        <v>-0.4280142781894796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.009042485169554375</v>
+        <v>-0.02824825129200099</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1595771667083553</v>
+        <v>-0.1940975911371277</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6482625215215172</v>
+        <v>-0.6485066954946789</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.364327812611228</v>
+        <v>4.497465517119456</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.695152935457345</v>
+        <v>5.925110226028179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.048885168316046</v>
+        <v>4.904721456969107</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.579846434558954</v>
+        <v>1.393336602375385</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.36635740143577</v>
+        <v>2.4861769603822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.921469587980816</v>
+        <v>5.458860438448577</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.551511171663507</v>
+        <v>4.966433144577372</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.172927632974148</v>
+        <v>0.9309881155175067</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4923638315659959</v>
+        <v>0.6046743132131679</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.571174587949836</v>
+        <v>0.8089467381463903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.248482511475187</v>
+        <v>-2.032216794924882</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.739927055570869</v>
+        <v>-1.73875304821758</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02621030970477446</v>
+        <v>0.1482728078361788</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04260156229160745</v>
+        <v>0.05951643050863505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5041520730683386</v>
+        <v>-0.441825190519832</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6302320651681602</v>
+        <v>-0.6074617594057127</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.75754123614503</v>
+        <v>5.887397802861135</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.131802236969956</v>
+        <v>6.702251505654848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.054130065853025</v>
+        <v>3.390821130205824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.191446079212819</v>
+        <v>2.042459109874704</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.414675217473627</v>
+        <v>6.608130618582456</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.259143725576631</v>
+        <v>4.515097700473209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.520089793791226</v>
+        <v>1.668909065729111</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.822600137441196</v>
+        <v>2.799985796361393</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.28331054376224</v>
+        <v>-2.72409516052101</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.941501752060989</v>
+        <v>-2.621986882338887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.868235619610719</v>
+        <v>-4.843398706766753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.857899075294283</v>
+        <v>-1.779834693092699</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4268807572707747</v>
+        <v>-0.5328904125288854</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4946706473779972</v>
+        <v>-0.4483336356568783</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8656525168356083</v>
+        <v>-0.8554376766124272</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7143894756725202</v>
+        <v>-0.6923959597930205</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.688742516450138</v>
+        <v>6.213419297533303</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.893576472024345</v>
+        <v>4.358190141668752</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.189337491479849</v>
+        <v>1.612159485464663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.803017936449597</v>
+        <v>3.937376186673744</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.639563165840999</v>
+        <v>1.491092468257049</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8909424050566975</v>
+        <v>1.064345254789485</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4185321616483668</v>
+        <v>0.6101568093335704</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.820217377327824</v>
+        <v>2.553695286402263</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.158278267097689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.4763791620931948</v>
+        <v>-0.4763791620931951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2614868256247622</v>
@@ -949,7 +949,7 @@
         <v>0.2891407260986451</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1591753523689546</v>
+        <v>-0.1591753523689547</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.9662737304761718</v>
+        <v>-0.9385052795967623</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.505758448217552</v>
+        <v>-0.6756333694517452</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6376749138674873</v>
+        <v>-0.6593632434382786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.956250748008041</v>
+        <v>-2.04704397401008</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2052817446475938</v>
+        <v>-0.1651660224614026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.0767039946001266</v>
+        <v>-0.1070992955366716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1563484902311399</v>
+        <v>-0.1397800158557319</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5166857522172628</v>
+        <v>-0.5347946346274783</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.450315376541925</v>
+        <v>3.472759609410617</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.541846108777692</v>
+        <v>4.348660422418062</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.188683055410162</v>
+        <v>3.136463959703362</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.080589302024126</v>
+        <v>0.8536216743488956</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9661084828395871</v>
+        <v>0.9734773291451982</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9008929373670047</v>
+        <v>0.8594734561057494</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.970303039536991</v>
+        <v>1.00537353600635</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4868606722050818</v>
+        <v>0.3989465692831577</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.039062500860433</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.7796067203617175</v>
+        <v>0.7796067203617183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.101074126883216</v>
@@ -1049,7 +1049,7 @@
         <v>0.1853297854365564</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2384987098054947</v>
+        <v>0.2384987098054949</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.564545361138748</v>
+        <v>-5.975912865044949</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.109982056110522</v>
+        <v>-2.282231938714514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.712906654758671</v>
+        <v>-1.819143524671818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.44470597302448</v>
+        <v>-1.270239695094634</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4312211809916744</v>
+        <v>-0.4596289677598847</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2532823004705811</v>
+        <v>-0.2815413696784208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2363073756525394</v>
+        <v>-0.2539151286354635</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2995435549603941</v>
+        <v>-0.2964711667128754</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.382062253334476</v>
+        <v>3.210829383390857</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.664917660532508</v>
+        <v>3.623247857607241</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.824440719469564</v>
+        <v>3.981204255187548</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.550951687476188</v>
+        <v>2.512396153468748</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5421219977450964</v>
+        <v>0.4356258516364851</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7799092668351703</v>
+        <v>0.6954572847452997</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9066082442045154</v>
+        <v>0.9441462492561995</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.195281847984477</v>
+        <v>1.218155990904941</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-3.647993469069091</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.861407453707357</v>
+        <v>2.861407453707356</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1824562517557056</v>
@@ -1149,7 +1149,7 @@
         <v>-0.5204733169675901</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2.303368069670074</v>
+        <v>2.303368069670073</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.612693053409654</v>
+        <v>-4.707109080665365</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.534659404456689</v>
+        <v>-1.352499883292271</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-7.545083983274583</v>
+        <v>-7.06557668446217</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.1169385750604537</v>
+        <v>0.03232197287764863</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4819563791615834</v>
+        <v>-0.4901328423413197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.278104946217351</v>
+        <v>-0.2515214616044851</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7176686652434778</v>
+        <v>-0.7174365050359465</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3050610534847625</v>
+        <v>-0.2097657085102375</v>
       </c>
     </row>
     <row r="21">
@@ -1192,25 +1192,25 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.748747149291001</v>
+        <v>1.439433339393305</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.866210131572119</v>
+        <v>3.931935267363324</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-0.7422192356973734</v>
+        <v>-0.4214395761537068</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.863095004273163</v>
+        <v>5.049948438466295</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4123444074890339</v>
+        <v>0.3293834771411595</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.227627999535153</v>
+        <v>2.450511712732896</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1326787998983177</v>
+        <v>-0.0715215376402646</v>
       </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
@@ -1235,7 +1235,7 @@
         <v>0.2521526134829332</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.593880460847826</v>
+        <v>0.5938804608478256</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2366202988568631</v>
@@ -1247,7 +1247,7 @@
         <v>0.0584909110311575</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2311363041362294</v>
+        <v>0.2311363041362293</v>
       </c>
     </row>
     <row r="23">
@@ -1258,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.02922583551446313</v>
+        <v>0.06523900496285516</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.302587725068879</v>
+        <v>0.3237364946966177</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7400992224991715</v>
+        <v>-0.7129839499047133</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2305198843746581</v>
+        <v>-0.1992434382095923</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.008056375861208269</v>
+        <v>0.009714552953911031</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05802256211788334</v>
+        <v>0.04892041719736712</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1508355945555605</v>
+        <v>-0.1505393306601489</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.08257485728833498</v>
+        <v>-0.0646632653745947</v>
       </c>
     </row>
     <row r="24">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.322561888897291</v>
+        <v>2.446919237470074</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.543606221318469</v>
+        <v>2.588386408143454</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.195639327054003</v>
+        <v>1.274649978029467</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.395024213090967</v>
+        <v>1.400878199931817</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5323629520052354</v>
+        <v>0.56937733830725</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6099866264345546</v>
+        <v>0.5882794252364156</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3200833178837206</v>
+        <v>0.3297467488597517</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.6144294449914931</v>
+        <v>0.6407075988474448</v>
       </c>
     </row>
     <row r="25">
